--- a/templates/RSTK-9221_Inspection Order.xlsx
+++ b/templates/RSTK-9221_Inspection Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6D4C01-5E7B-44F3-A217-26ED3290EDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44771DC-F312-4C13-9F84-5B98C83F71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12072" yWindow="2004" windowWidth="10968" windowHeight="10356" xr2:uid="{F7ACD737-F1F1-468A-BFEB-E2B903BD5603}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7ACD737-F1F1-468A-BFEB-E2B903BD5603}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Insp Order" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,10 +475,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -491,14 +491,17 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -515,10 +518,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -531,17 +534,14 @@
       </c>
       <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
